--- a/interest-calculator/assets/interest.xlsx
+++ b/interest-calculator/assets/interest.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246E3AB4-05E4-4664-9820-809D81FDF2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DC6FB4-D4D6-4A9F-A477-55663BAF6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="119">
   <si>
     <t>ריבית צמודה</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -744,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,10 +764,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1403,27 +1410,43 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>56</v>
+      <c r="B84" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
